--- a/aka-Tolob-files/отчёты/7-ОСВ по счету/7-ОСВ по счету счета к оплате.xlsx
+++ b/aka-Tolob-files/отчёты/7-ОСВ по счету/7-ОСВ по счету счета к оплате.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Новая папка\ФЭУ Флеш\1-020126\документы\Отчёты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\FEU\02-report-helpers\aka-Tolob-files\отчёты\7-ОСВ по счету\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" tabRatio="0"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -341,71 +341,71 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,7 +945,7 @@
   <dimension ref="A1:U209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U190" sqref="U190"/>
+      <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -973,96 +973,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
@@ -1248,243 +1248,243 @@
     <row r="188" spans="1:20" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="189" spans="1:20" s="1" customFormat="1" ht="9.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="190" spans="1:20" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="31" t="s">
+      <c r="A190" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B190" s="31"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="31"/>
-      <c r="E190" s="31"/>
-      <c r="F190" s="31" t="s">
+      <c r="B190" s="18"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="18"/>
+      <c r="E190" s="18"/>
+      <c r="F190" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G190" s="31"/>
-      <c r="H190" s="31"/>
-      <c r="I190" s="31"/>
-      <c r="J190" s="31"/>
-      <c r="K190" s="31" t="s">
+      <c r="G190" s="18"/>
+      <c r="H190" s="18"/>
+      <c r="I190" s="18"/>
+      <c r="J190" s="18"/>
+      <c r="K190" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L190" s="31"/>
-      <c r="M190" s="31"/>
-      <c r="N190" s="31"/>
-      <c r="O190" s="31"/>
-      <c r="P190" s="31"/>
-      <c r="Q190" s="31" t="s">
+      <c r="L190" s="18"/>
+      <c r="M190" s="18"/>
+      <c r="N190" s="18"/>
+      <c r="O190" s="18"/>
+      <c r="P190" s="18"/>
+      <c r="Q190" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R190" s="31"/>
-      <c r="S190" s="31"/>
-      <c r="T190" s="31"/>
+      <c r="R190" s="18"/>
+      <c r="S190" s="18"/>
+      <c r="T190" s="18"/>
     </row>
     <row r="191" spans="1:20" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="31" t="s">
+      <c r="A191" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B191" s="31"/>
-      <c r="C191" s="31"/>
-      <c r="D191" s="31"/>
-      <c r="E191" s="31"/>
-      <c r="F191" s="23" t="s">
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G191" s="23"/>
-      <c r="H191" s="23"/>
-      <c r="I191" s="23" t="s">
+      <c r="G191" s="13"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J191" s="23"/>
-      <c r="K191" s="23" t="s">
+      <c r="J191" s="13"/>
+      <c r="K191" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L191" s="23"/>
-      <c r="M191" s="23"/>
-      <c r="N191" s="23" t="s">
+      <c r="L191" s="13"/>
+      <c r="M191" s="13"/>
+      <c r="N191" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="O191" s="23"/>
-      <c r="P191" s="23"/>
-      <c r="Q191" s="23" t="s">
+      <c r="O191" s="13"/>
+      <c r="P191" s="13"/>
+      <c r="Q191" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="R191" s="23"/>
-      <c r="S191" s="23" t="s">
+      <c r="R191" s="13"/>
+      <c r="S191" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="T191" s="23"/>
+      <c r="T191" s="13"/>
     </row>
     <row r="192" spans="1:20" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="31" t="s">
+      <c r="A192" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B192" s="31"/>
-      <c r="C192" s="31"/>
-      <c r="D192" s="31"/>
-      <c r="E192" s="31"/>
-      <c r="F192" s="24"/>
-      <c r="G192" s="28"/>
-      <c r="H192" s="25"/>
-      <c r="I192" s="24"/>
-      <c r="J192" s="25"/>
-      <c r="K192" s="24"/>
-      <c r="L192" s="28"/>
-      <c r="M192" s="25"/>
-      <c r="N192" s="24"/>
-      <c r="O192" s="28"/>
-      <c r="P192" s="25"/>
-      <c r="Q192" s="24"/>
-      <c r="R192" s="25"/>
-      <c r="S192" s="24"/>
-      <c r="T192" s="25"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="22"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="14"/>
+      <c r="J192" s="15"/>
+      <c r="K192" s="14"/>
+      <c r="L192" s="22"/>
+      <c r="M192" s="15"/>
+      <c r="N192" s="14"/>
+      <c r="O192" s="22"/>
+      <c r="P192" s="15"/>
+      <c r="Q192" s="14"/>
+      <c r="R192" s="15"/>
+      <c r="S192" s="14"/>
+      <c r="T192" s="15"/>
     </row>
     <row r="193" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="31" t="s">
+      <c r="A193" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B193" s="31"/>
-      <c r="C193" s="31"/>
-      <c r="D193" s="31"/>
-      <c r="E193" s="31"/>
-      <c r="F193" s="26"/>
-      <c r="G193" s="29"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="26"/>
-      <c r="J193" s="27"/>
-      <c r="K193" s="26"/>
-      <c r="L193" s="29"/>
-      <c r="M193" s="27"/>
-      <c r="N193" s="26"/>
-      <c r="O193" s="29"/>
-      <c r="P193" s="27"/>
-      <c r="Q193" s="26"/>
-      <c r="R193" s="27"/>
-      <c r="S193" s="26"/>
-      <c r="T193" s="27"/>
-    </row>
-    <row r="194" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="21" t="s">
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="23"/>
+      <c r="H193" s="17"/>
+      <c r="I193" s="16"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="16"/>
+      <c r="L193" s="23"/>
+      <c r="M193" s="17"/>
+      <c r="N193" s="16"/>
+      <c r="O193" s="23"/>
+      <c r="P193" s="17"/>
+      <c r="Q193" s="16"/>
+      <c r="R193" s="17"/>
+      <c r="S193" s="16"/>
+      <c r="T193" s="17"/>
+    </row>
+    <row r="194" spans="1:21" ht="11.1" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B194" s="21"/>
-      <c r="C194" s="21"/>
-      <c r="D194" s="21"/>
-      <c r="E194" s="21"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="26"/>
+      <c r="E194" s="26"/>
       <c r="F194" s="2"/>
       <c r="G194" s="3"/>
       <c r="H194" s="4"/>
-      <c r="I194" s="22">
+      <c r="I194" s="27">
         <f>I204</f>
         <v>301482.99</v>
       </c>
-      <c r="J194" s="22"/>
-      <c r="K194" s="22">
+      <c r="J194" s="27"/>
+      <c r="K194" s="27">
         <f>K195</f>
         <v>572468.11</v>
       </c>
-      <c r="L194" s="22"/>
-      <c r="M194" s="22"/>
-      <c r="N194" s="22">
+      <c r="L194" s="27"/>
+      <c r="M194" s="27"/>
+      <c r="N194" s="27">
         <f>N195</f>
         <v>2443939.52</v>
       </c>
-      <c r="O194" s="22"/>
-      <c r="P194" s="22"/>
+      <c r="O194" s="27"/>
+      <c r="P194" s="27"/>
       <c r="Q194" s="2"/>
       <c r="R194" s="4"/>
-      <c r="S194" s="22">
+      <c r="S194" s="27">
         <f>T198+S200+S204</f>
         <v>2172954.4</v>
       </c>
-      <c r="T194" s="22"/>
-    </row>
-    <row r="195" spans="1:21" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="30" t="s">
+      <c r="T194" s="27"/>
+    </row>
+    <row r="195" spans="1:21" ht="11.1" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B195" s="30"/>
-      <c r="C195" s="30"/>
-      <c r="D195" s="30"/>
-      <c r="E195" s="30"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="24"/>
       <c r="F195" s="5"/>
       <c r="G195" s="6"/>
       <c r="H195" s="7"/>
-      <c r="I195" s="20">
+      <c r="I195" s="25">
         <f>I204</f>
         <v>301482.99</v>
       </c>
-      <c r="J195" s="20"/>
-      <c r="K195" s="20">
+      <c r="J195" s="25"/>
+      <c r="K195" s="25">
         <f>K196+K198+K202+K204+K206+K208</f>
         <v>572468.11</v>
       </c>
-      <c r="L195" s="20"/>
-      <c r="M195" s="20"/>
-      <c r="N195" s="20">
+      <c r="L195" s="25"/>
+      <c r="M195" s="25"/>
+      <c r="N195" s="25">
         <f>N196+N198+N200+N202+N204+N206+N208</f>
         <v>2443939.52</v>
       </c>
-      <c r="O195" s="20"/>
-      <c r="P195" s="20"/>
+      <c r="O195" s="25"/>
+      <c r="P195" s="25"/>
       <c r="Q195" s="5"/>
       <c r="R195" s="7"/>
-      <c r="S195" s="20">
+      <c r="S195" s="25">
         <f>I195+N195-K195</f>
         <v>2172954.4</v>
       </c>
-      <c r="T195" s="20"/>
+      <c r="T195" s="25"/>
       <c r="U195" s="11"/>
     </row>
     <row r="196" spans="1:21" ht="21.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A196" s="16" t="s">
+      <c r="A196" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B196" s="17"/>
-      <c r="C196" s="17"/>
-      <c r="D196" s="17"/>
-      <c r="E196" s="17"/>
+      <c r="B196" s="32"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="32"/>
       <c r="F196" s="8"/>
       <c r="G196" s="9"/>
       <c r="H196" s="10"/>
       <c r="I196" s="8"/>
       <c r="J196" s="10"/>
-      <c r="K196" s="13">
+      <c r="K196" s="28">
         <v>16100</v>
       </c>
-      <c r="L196" s="13"/>
-      <c r="M196" s="13"/>
-      <c r="N196" s="13">
+      <c r="L196" s="28"/>
+      <c r="M196" s="28"/>
+      <c r="N196" s="28">
         <v>16100</v>
       </c>
-      <c r="O196" s="13"/>
-      <c r="P196" s="13"/>
+      <c r="O196" s="28"/>
+      <c r="P196" s="28"/>
       <c r="Q196" s="8"/>
       <c r="R196" s="10"/>
       <c r="S196" s="8"/>
       <c r="T196" s="10"/>
     </row>
     <row r="197" spans="1:21" ht="21.9" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A197" s="18" t="s">
+      <c r="A197" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B197" s="15"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="15"/>
-      <c r="E197" s="15"/>
+      <c r="B197" s="30"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="30"/>
       <c r="F197" s="8"/>
       <c r="G197" s="9"/>
       <c r="H197" s="10"/>
       <c r="I197" s="8"/>
       <c r="J197" s="10"/>
-      <c r="K197" s="13">
+      <c r="K197" s="28">
         <v>16100</v>
       </c>
-      <c r="L197" s="13"/>
-      <c r="M197" s="13"/>
-      <c r="N197" s="13">
+      <c r="L197" s="28"/>
+      <c r="M197" s="28"/>
+      <c r="N197" s="28">
         <v>16100</v>
       </c>
-      <c r="O197" s="13"/>
-      <c r="P197" s="13"/>
+      <c r="O197" s="28"/>
+      <c r="P197" s="28"/>
       <c r="Q197" s="8"/>
       <c r="R197" s="10"/>
       <c r="S197" s="8"/>
@@ -1492,28 +1492,28 @@
       <c r="U197" s="11"/>
     </row>
     <row r="198" spans="1:21" ht="33" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A198" s="16" t="s">
+      <c r="A198" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B198" s="17"/>
-      <c r="C198" s="17"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="17"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
       <c r="F198" s="8"/>
       <c r="G198" s="9"/>
       <c r="H198" s="10"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="19"/>
-      <c r="K198" s="13">
+      <c r="I198" s="33"/>
+      <c r="J198" s="33"/>
+      <c r="K198" s="28">
         <v>3000.11</v>
       </c>
-      <c r="L198" s="13"/>
-      <c r="M198" s="13"/>
-      <c r="N198" s="13">
+      <c r="L198" s="28"/>
+      <c r="M198" s="28"/>
+      <c r="N198" s="28">
         <v>3677.06</v>
       </c>
-      <c r="O198" s="13"/>
-      <c r="P198" s="13"/>
+      <c r="O198" s="28"/>
+      <c r="P198" s="28"/>
       <c r="Q198" s="8"/>
       <c r="R198" s="10"/>
       <c r="S198" s="8"/>
@@ -1524,28 +1524,28 @@
       <c r="U198" s="11"/>
     </row>
     <row r="199" spans="1:21" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A199" s="14">
+      <c r="A199" s="34">
         <v>45414</v>
       </c>
-      <c r="B199" s="15"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="15"/>
-      <c r="E199" s="15"/>
+      <c r="B199" s="30"/>
+      <c r="C199" s="30"/>
+      <c r="D199" s="30"/>
+      <c r="E199" s="30"/>
       <c r="F199" s="8"/>
       <c r="G199" s="9"/>
       <c r="H199" s="10"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="13">
+      <c r="I199" s="33"/>
+      <c r="J199" s="33"/>
+      <c r="K199" s="28">
         <v>3000.11</v>
       </c>
-      <c r="L199" s="13"/>
-      <c r="M199" s="13"/>
-      <c r="N199" s="13">
+      <c r="L199" s="28"/>
+      <c r="M199" s="28"/>
+      <c r="N199" s="28">
         <v>3677.06</v>
       </c>
-      <c r="O199" s="13"/>
-      <c r="P199" s="13"/>
+      <c r="O199" s="28"/>
+      <c r="P199" s="28"/>
       <c r="Q199" s="8"/>
       <c r="R199" s="10"/>
       <c r="S199" s="8"/>
@@ -1556,13 +1556,13 @@
       <c r="U199" s="11"/>
     </row>
     <row r="200" spans="1:21" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A200" s="16" t="s">
+      <c r="A200" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B200" s="17"/>
-      <c r="C200" s="17"/>
-      <c r="D200" s="17"/>
-      <c r="E200" s="17"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
       <c r="F200" s="8"/>
       <c r="G200" s="9"/>
       <c r="H200" s="10"/>
@@ -1571,26 +1571,26 @@
       <c r="K200" s="8"/>
       <c r="L200" s="9"/>
       <c r="M200" s="10"/>
-      <c r="N200" s="13">
+      <c r="N200" s="28">
         <v>1226322.56</v>
       </c>
-      <c r="O200" s="13"/>
-      <c r="P200" s="13"/>
+      <c r="O200" s="28"/>
+      <c r="P200" s="28"/>
       <c r="Q200" s="8"/>
       <c r="R200" s="10"/>
-      <c r="S200" s="13">
+      <c r="S200" s="28">
         <v>1226322.56</v>
       </c>
-      <c r="T200" s="13"/>
+      <c r="T200" s="28"/>
     </row>
     <row r="201" spans="1:21" ht="21.9" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A201" s="18" t="s">
+      <c r="A201" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B201" s="15"/>
-      <c r="C201" s="15"/>
-      <c r="D201" s="15"/>
-      <c r="E201" s="15"/>
+      <c r="B201" s="30"/>
+      <c r="C201" s="30"/>
+      <c r="D201" s="30"/>
+      <c r="E201" s="30"/>
       <c r="F201" s="8"/>
       <c r="G201" s="9"/>
       <c r="H201" s="10"/>
@@ -1599,41 +1599,41 @@
       <c r="K201" s="8"/>
       <c r="L201" s="9"/>
       <c r="M201" s="10"/>
-      <c r="N201" s="13">
+      <c r="N201" s="28">
         <v>1226322.56</v>
       </c>
-      <c r="O201" s="13"/>
-      <c r="P201" s="13"/>
+      <c r="O201" s="28"/>
+      <c r="P201" s="28"/>
       <c r="Q201" s="8"/>
       <c r="R201" s="10"/>
-      <c r="S201" s="13">
+      <c r="S201" s="28">
         <v>1226322.56</v>
       </c>
-      <c r="T201" s="13"/>
+      <c r="T201" s="28"/>
     </row>
     <row r="202" spans="1:21" ht="21.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A202" s="16" t="s">
+      <c r="A202" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B202" s="17"/>
-      <c r="C202" s="17"/>
-      <c r="D202" s="17"/>
-      <c r="E202" s="17"/>
+      <c r="B202" s="32"/>
+      <c r="C202" s="32"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="32"/>
       <c r="F202" s="8"/>
       <c r="G202" s="9"/>
       <c r="H202" s="10"/>
       <c r="I202" s="8"/>
       <c r="J202" s="10"/>
-      <c r="K202" s="13">
+      <c r="K202" s="28">
         <v>17808</v>
       </c>
-      <c r="L202" s="13"/>
-      <c r="M202" s="13"/>
-      <c r="N202" s="13">
+      <c r="L202" s="28"/>
+      <c r="M202" s="28"/>
+      <c r="N202" s="28">
         <v>17808</v>
       </c>
-      <c r="O202" s="13"/>
-      <c r="P202" s="13"/>
+      <c r="O202" s="28"/>
+      <c r="P202" s="28"/>
       <c r="Q202" s="8"/>
       <c r="R202" s="10"/>
       <c r="S202" s="8"/>
@@ -1641,205 +1641,205 @@
       <c r="U202" s="11"/>
     </row>
     <row r="203" spans="1:21" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A203" s="18" t="s">
+      <c r="A203" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B203" s="15"/>
-      <c r="C203" s="15"/>
-      <c r="D203" s="15"/>
-      <c r="E203" s="15"/>
+      <c r="B203" s="30"/>
+      <c r="C203" s="30"/>
+      <c r="D203" s="30"/>
+      <c r="E203" s="30"/>
       <c r="F203" s="8"/>
       <c r="G203" s="9"/>
       <c r="H203" s="10"/>
       <c r="I203" s="8"/>
       <c r="J203" s="10"/>
-      <c r="K203" s="13">
+      <c r="K203" s="28">
         <v>17808</v>
       </c>
-      <c r="L203" s="13"/>
-      <c r="M203" s="13"/>
-      <c r="N203" s="13">
+      <c r="L203" s="28"/>
+      <c r="M203" s="28"/>
+      <c r="N203" s="28">
         <v>17808</v>
       </c>
-      <c r="O203" s="13"/>
-      <c r="P203" s="13"/>
+      <c r="O203" s="28"/>
+      <c r="P203" s="28"/>
       <c r="Q203" s="8"/>
       <c r="R203" s="10"/>
       <c r="S203" s="8"/>
       <c r="T203" s="10"/>
     </row>
     <row r="204" spans="1:21" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A204" s="16" t="s">
+      <c r="A204" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B204" s="17"/>
-      <c r="C204" s="17"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="17"/>
+      <c r="B204" s="32"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
       <c r="F204" s="8"/>
       <c r="G204" s="9"/>
       <c r="H204" s="10"/>
-      <c r="I204" s="13">
+      <c r="I204" s="28">
         <v>301482.99</v>
       </c>
-      <c r="J204" s="13"/>
-      <c r="K204" s="13">
+      <c r="J204" s="28"/>
+      <c r="K204" s="28">
         <v>520000</v>
       </c>
-      <c r="L204" s="13"/>
-      <c r="M204" s="13"/>
-      <c r="N204" s="13">
+      <c r="L204" s="28"/>
+      <c r="M204" s="28"/>
+      <c r="N204" s="28">
         <v>1164471.8999999999</v>
       </c>
-      <c r="O204" s="13"/>
-      <c r="P204" s="13"/>
+      <c r="O204" s="28"/>
+      <c r="P204" s="28"/>
       <c r="Q204" s="8"/>
       <c r="R204" s="10"/>
-      <c r="S204" s="13">
+      <c r="S204" s="28">
         <v>945954.89</v>
       </c>
-      <c r="T204" s="13"/>
+      <c r="T204" s="28"/>
       <c r="U204" s="11"/>
     </row>
     <row r="205" spans="1:21" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A205" s="14">
+      <c r="A205" s="34">
         <v>45779</v>
       </c>
-      <c r="B205" s="15"/>
-      <c r="C205" s="15"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="15"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="30"/>
+      <c r="D205" s="30"/>
+      <c r="E205" s="30"/>
       <c r="F205" s="8"/>
       <c r="G205" s="9"/>
       <c r="H205" s="10"/>
-      <c r="I205" s="13">
+      <c r="I205" s="28">
         <v>301482.99</v>
       </c>
-      <c r="J205" s="13"/>
-      <c r="K205" s="13">
+      <c r="J205" s="28"/>
+      <c r="K205" s="28">
         <v>520000</v>
       </c>
-      <c r="L205" s="13"/>
-      <c r="M205" s="13"/>
-      <c r="N205" s="13">
+      <c r="L205" s="28"/>
+      <c r="M205" s="28"/>
+      <c r="N205" s="28">
         <v>1164471.8999999999</v>
       </c>
-      <c r="O205" s="13"/>
-      <c r="P205" s="13"/>
+      <c r="O205" s="28"/>
+      <c r="P205" s="28"/>
       <c r="Q205" s="8"/>
       <c r="R205" s="10"/>
-      <c r="S205" s="13">
+      <c r="S205" s="28">
         <v>945954.89</v>
       </c>
-      <c r="T205" s="13"/>
+      <c r="T205" s="28"/>
     </row>
     <row r="206" spans="1:21" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A206" s="16" t="s">
+      <c r="A206" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
-      <c r="D206" s="17"/>
-      <c r="E206" s="17"/>
+      <c r="B206" s="32"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="32"/>
       <c r="F206" s="8"/>
       <c r="G206" s="9"/>
       <c r="H206" s="10"/>
       <c r="I206" s="8"/>
       <c r="J206" s="10"/>
-      <c r="K206" s="13">
+      <c r="K206" s="28">
         <v>5560</v>
       </c>
-      <c r="L206" s="13"/>
-      <c r="M206" s="13"/>
-      <c r="N206" s="13">
+      <c r="L206" s="28"/>
+      <c r="M206" s="28"/>
+      <c r="N206" s="28">
         <v>5560</v>
       </c>
-      <c r="O206" s="13"/>
-      <c r="P206" s="13"/>
+      <c r="O206" s="28"/>
+      <c r="P206" s="28"/>
       <c r="Q206" s="8"/>
       <c r="R206" s="10"/>
       <c r="S206" s="8"/>
       <c r="T206" s="10"/>
     </row>
     <row r="207" spans="1:21" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A207" s="14">
+      <c r="A207" s="34">
         <v>45778</v>
       </c>
-      <c r="B207" s="15"/>
-      <c r="C207" s="15"/>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15"/>
+      <c r="B207" s="30"/>
+      <c r="C207" s="30"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="30"/>
       <c r="F207" s="8"/>
       <c r="G207" s="9"/>
       <c r="H207" s="10"/>
       <c r="I207" s="8"/>
       <c r="J207" s="10"/>
-      <c r="K207" s="13">
+      <c r="K207" s="28">
         <v>5560</v>
       </c>
-      <c r="L207" s="13"/>
-      <c r="M207" s="13"/>
-      <c r="N207" s="13">
+      <c r="L207" s="28"/>
+      <c r="M207" s="28"/>
+      <c r="N207" s="28">
         <v>5560</v>
       </c>
-      <c r="O207" s="13"/>
-      <c r="P207" s="13"/>
+      <c r="O207" s="28"/>
+      <c r="P207" s="28"/>
       <c r="Q207" s="8"/>
       <c r="R207" s="10"/>
       <c r="S207" s="8"/>
       <c r="T207" s="10"/>
     </row>
     <row r="208" spans="1:21" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A208" s="16" t="s">
+      <c r="A208" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
+      <c r="B208" s="32"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
       <c r="F208" s="8"/>
       <c r="G208" s="9"/>
       <c r="H208" s="10"/>
       <c r="I208" s="8"/>
       <c r="J208" s="10"/>
-      <c r="K208" s="13">
+      <c r="K208" s="28">
         <v>10000</v>
       </c>
-      <c r="L208" s="13"/>
-      <c r="M208" s="13"/>
-      <c r="N208" s="13">
+      <c r="L208" s="28"/>
+      <c r="M208" s="28"/>
+      <c r="N208" s="28">
         <v>10000</v>
       </c>
-      <c r="O208" s="13"/>
-      <c r="P208" s="13"/>
+      <c r="O208" s="28"/>
+      <c r="P208" s="28"/>
       <c r="Q208" s="8"/>
       <c r="R208" s="10"/>
       <c r="S208" s="8"/>
       <c r="T208" s="10"/>
     </row>
     <row r="209" spans="1:20" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A209" s="14">
+      <c r="A209" s="34">
         <v>45690</v>
       </c>
-      <c r="B209" s="15"/>
-      <c r="C209" s="15"/>
-      <c r="D209" s="15"/>
-      <c r="E209" s="15"/>
+      <c r="B209" s="30"/>
+      <c r="C209" s="30"/>
+      <c r="D209" s="30"/>
+      <c r="E209" s="30"/>
       <c r="F209" s="8"/>
       <c r="G209" s="9"/>
       <c r="H209" s="10"/>
       <c r="I209" s="8"/>
       <c r="J209" s="10"/>
-      <c r="K209" s="13">
+      <c r="K209" s="28">
         <v>10000</v>
       </c>
-      <c r="L209" s="13"/>
-      <c r="M209" s="13"/>
-      <c r="N209" s="13">
+      <c r="L209" s="28"/>
+      <c r="M209" s="28"/>
+      <c r="N209" s="28">
         <v>10000</v>
       </c>
-      <c r="O209" s="13"/>
-      <c r="P209" s="13"/>
+      <c r="O209" s="28"/>
+      <c r="P209" s="28"/>
       <c r="Q209" s="8"/>
       <c r="R209" s="10"/>
       <c r="S209" s="8"/>
@@ -1847,6 +1847,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="S204:T204"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="I205:J205"/>
+    <mergeCell ref="K205:M205"/>
+    <mergeCell ref="N205:P205"/>
+    <mergeCell ref="S205:T205"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="I204:J204"/>
+    <mergeCell ref="K204:M204"/>
+    <mergeCell ref="N204:P204"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="K203:M203"/>
+    <mergeCell ref="N203:P203"/>
+    <mergeCell ref="A209:E209"/>
+    <mergeCell ref="K209:M209"/>
+    <mergeCell ref="N209:P209"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="K206:M206"/>
+    <mergeCell ref="N206:P206"/>
+    <mergeCell ref="A207:E207"/>
+    <mergeCell ref="K207:M207"/>
+    <mergeCell ref="N207:P207"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="K208:M208"/>
+    <mergeCell ref="N208:P208"/>
+    <mergeCell ref="K199:M199"/>
+    <mergeCell ref="N199:P199"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="N200:P200"/>
+    <mergeCell ref="A202:E202"/>
+    <mergeCell ref="K202:M202"/>
+    <mergeCell ref="N202:P202"/>
+    <mergeCell ref="S200:T200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="N201:P201"/>
+    <mergeCell ref="S201:T201"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="K196:M196"/>
+    <mergeCell ref="N196:P196"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="K197:M197"/>
+    <mergeCell ref="N197:P197"/>
+    <mergeCell ref="A198:E198"/>
+    <mergeCell ref="I198:J198"/>
+    <mergeCell ref="K198:M198"/>
+    <mergeCell ref="N198:P198"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="I199:J199"/>
+    <mergeCell ref="S195:T195"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="I194:J194"/>
+    <mergeCell ref="K194:M194"/>
+    <mergeCell ref="N194:P194"/>
+    <mergeCell ref="S194:T194"/>
+    <mergeCell ref="I191:J193"/>
+    <mergeCell ref="K191:M193"/>
+    <mergeCell ref="N191:P193"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="I195:J195"/>
+    <mergeCell ref="K195:M195"/>
+    <mergeCell ref="N195:P195"/>
     <mergeCell ref="Q191:R193"/>
     <mergeCell ref="S191:T193"/>
     <mergeCell ref="A192:E192"/>
@@ -1863,67 +1924,6 @@
     <mergeCell ref="Q190:T190"/>
     <mergeCell ref="A191:E191"/>
     <mergeCell ref="F191:H193"/>
-    <mergeCell ref="I191:J193"/>
-    <mergeCell ref="K191:M193"/>
-    <mergeCell ref="N191:P193"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="I195:J195"/>
-    <mergeCell ref="K195:M195"/>
-    <mergeCell ref="N195:P195"/>
-    <mergeCell ref="S195:T195"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="I194:J194"/>
-    <mergeCell ref="K194:M194"/>
-    <mergeCell ref="N194:P194"/>
-    <mergeCell ref="S194:T194"/>
-    <mergeCell ref="S200:T200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="N201:P201"/>
-    <mergeCell ref="S201:T201"/>
-    <mergeCell ref="A196:E196"/>
-    <mergeCell ref="K196:M196"/>
-    <mergeCell ref="N196:P196"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="K197:M197"/>
-    <mergeCell ref="N197:P197"/>
-    <mergeCell ref="A198:E198"/>
-    <mergeCell ref="I198:J198"/>
-    <mergeCell ref="K198:M198"/>
-    <mergeCell ref="N198:P198"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="I199:J199"/>
-    <mergeCell ref="K199:M199"/>
-    <mergeCell ref="N199:P199"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="N200:P200"/>
-    <mergeCell ref="A202:E202"/>
-    <mergeCell ref="K202:M202"/>
-    <mergeCell ref="N202:P202"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="K203:M203"/>
-    <mergeCell ref="N203:P203"/>
-    <mergeCell ref="A209:E209"/>
-    <mergeCell ref="K209:M209"/>
-    <mergeCell ref="N209:P209"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="K206:M206"/>
-    <mergeCell ref="N206:P206"/>
-    <mergeCell ref="A207:E207"/>
-    <mergeCell ref="K207:M207"/>
-    <mergeCell ref="N207:P207"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="K208:M208"/>
-    <mergeCell ref="N208:P208"/>
-    <mergeCell ref="S204:T204"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="I205:J205"/>
-    <mergeCell ref="K205:M205"/>
-    <mergeCell ref="N205:P205"/>
-    <mergeCell ref="S205:T205"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="I204:J204"/>
-    <mergeCell ref="K204:M204"/>
-    <mergeCell ref="N204:P204"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/aka-Tolob-files/отчёты/7-ОСВ по счету/7-ОСВ по счету счета к оплате.xlsx
+++ b/aka-Tolob-files/отчёты/7-ОСВ по счету/7-ОСВ по счету счета к оплате.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Счет</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Шартномаҳо</t>
-  </si>
-  <si>
-    <t>Асъор</t>
   </si>
   <si>
     <t>Сохибкори инфироди Алишеров А.А.</t>
@@ -164,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -301,11 +298,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3AC86"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB3AC86"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB3AC86"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB3AC86"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB3AC86"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -341,23 +369,38 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -368,44 +411,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,7 +994,7 @@
   <dimension ref="A1:U209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G206" sqref="G206"/>
+      <selection activeCell="F206" sqref="F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -973,96 +1022,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:19" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="A2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
@@ -1248,243 +1297,241 @@
     <row r="188" spans="1:20" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="189" spans="1:20" s="1" customFormat="1" ht="9.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="190" spans="1:20" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="18" t="s">
+      <c r="A190" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18" t="s">
+      <c r="B190" s="41"/>
+      <c r="C190" s="41"/>
+      <c r="D190" s="41"/>
+      <c r="E190" s="41"/>
+      <c r="F190" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G190" s="33"/>
+      <c r="H190" s="33"/>
+      <c r="I190" s="33"/>
+      <c r="J190" s="33"/>
+      <c r="K190" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G190" s="18"/>
-      <c r="H190" s="18"/>
-      <c r="I190" s="18"/>
-      <c r="J190" s="18"/>
-      <c r="K190" s="18" t="s">
+      <c r="L190" s="33"/>
+      <c r="M190" s="33"/>
+      <c r="N190" s="33"/>
+      <c r="O190" s="33"/>
+      <c r="P190" s="33"/>
+      <c r="Q190" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L190" s="18"/>
-      <c r="M190" s="18"/>
-      <c r="N190" s="18"/>
-      <c r="O190" s="18"/>
-      <c r="P190" s="18"/>
-      <c r="Q190" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="R190" s="18"/>
-      <c r="S190" s="18"/>
-      <c r="T190" s="18"/>
-    </row>
-    <row r="191" spans="1:20" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="13" t="s">
+      <c r="R190" s="33"/>
+      <c r="S190" s="33"/>
+      <c r="T190" s="33"/>
+    </row>
+    <row r="191" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="28"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="29"/>
+      <c r="F191" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G191" s="13"/>
-      <c r="H191" s="13"/>
-      <c r="I191" s="13" t="s">
+      <c r="G191" s="34"/>
+      <c r="H191" s="34"/>
+      <c r="I191" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J191" s="13"/>
-      <c r="K191" s="13" t="s">
+      <c r="J191" s="34"/>
+      <c r="K191" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="L191" s="13"/>
-      <c r="M191" s="13"/>
-      <c r="N191" s="13" t="s">
+      <c r="L191" s="34"/>
+      <c r="M191" s="34"/>
+      <c r="N191" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="O191" s="13"/>
-      <c r="P191" s="13"/>
-      <c r="Q191" s="13" t="s">
+      <c r="O191" s="34"/>
+      <c r="P191" s="34"/>
+      <c r="Q191" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="R191" s="13"/>
-      <c r="S191" s="13" t="s">
+      <c r="R191" s="34"/>
+      <c r="S191" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="T191" s="13"/>
-    </row>
-    <row r="192" spans="1:20" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="22"/>
-      <c r="H192" s="15"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="14"/>
-      <c r="L192" s="22"/>
-      <c r="M192" s="15"/>
-      <c r="N192" s="14"/>
-      <c r="O192" s="22"/>
-      <c r="P192" s="15"/>
-      <c r="Q192" s="14"/>
-      <c r="R192" s="15"/>
-      <c r="S192" s="14"/>
-      <c r="T192" s="15"/>
+      <c r="T191" s="34"/>
+    </row>
+    <row r="192" spans="1:20" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="30"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="35"/>
+      <c r="G192" s="36"/>
+      <c r="H192" s="37"/>
+      <c r="I192" s="35"/>
+      <c r="J192" s="37"/>
+      <c r="K192" s="35"/>
+      <c r="L192" s="36"/>
+      <c r="M192" s="37"/>
+      <c r="N192" s="35"/>
+      <c r="O192" s="36"/>
+      <c r="P192" s="37"/>
+      <c r="Q192" s="35"/>
+      <c r="R192" s="37"/>
+      <c r="S192" s="35"/>
+      <c r="T192" s="37"/>
     </row>
     <row r="193" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="18" t="s">
+      <c r="A193" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="16"/>
-      <c r="G193" s="23"/>
-      <c r="H193" s="17"/>
-      <c r="I193" s="16"/>
-      <c r="J193" s="17"/>
-      <c r="K193" s="16"/>
-      <c r="L193" s="23"/>
-      <c r="M193" s="17"/>
-      <c r="N193" s="16"/>
-      <c r="O193" s="23"/>
-      <c r="P193" s="17"/>
-      <c r="Q193" s="16"/>
-      <c r="R193" s="17"/>
-      <c r="S193" s="16"/>
-      <c r="T193" s="17"/>
+      <c r="B193" s="41"/>
+      <c r="C193" s="41"/>
+      <c r="D193" s="41"/>
+      <c r="E193" s="41"/>
+      <c r="F193" s="38"/>
+      <c r="G193" s="39"/>
+      <c r="H193" s="40"/>
+      <c r="I193" s="38"/>
+      <c r="J193" s="40"/>
+      <c r="K193" s="38"/>
+      <c r="L193" s="39"/>
+      <c r="M193" s="40"/>
+      <c r="N193" s="38"/>
+      <c r="O193" s="39"/>
+      <c r="P193" s="40"/>
+      <c r="Q193" s="38"/>
+      <c r="R193" s="40"/>
+      <c r="S193" s="38"/>
+      <c r="T193" s="40"/>
     </row>
     <row r="194" spans="1:21" ht="11.1" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
+      <c r="A194" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" s="21"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
       <c r="F194" s="2"/>
       <c r="G194" s="3"/>
       <c r="H194" s="4"/>
-      <c r="I194" s="27">
+      <c r="I194" s="22">
         <f>I204</f>
         <v>301482.99</v>
       </c>
-      <c r="J194" s="27"/>
-      <c r="K194" s="27">
+      <c r="J194" s="22"/>
+      <c r="K194" s="22">
         <f>K195</f>
         <v>572468.11</v>
       </c>
-      <c r="L194" s="27"/>
-      <c r="M194" s="27"/>
-      <c r="N194" s="27">
+      <c r="L194" s="22"/>
+      <c r="M194" s="22"/>
+      <c r="N194" s="22">
         <f>N195</f>
         <v>2443939.52</v>
       </c>
-      <c r="O194" s="27"/>
-      <c r="P194" s="27"/>
+      <c r="O194" s="22"/>
+      <c r="P194" s="22"/>
       <c r="Q194" s="2"/>
       <c r="R194" s="4"/>
-      <c r="S194" s="27">
+      <c r="S194" s="22">
         <f>T198+S200+S204</f>
         <v>2172954.4</v>
       </c>
-      <c r="T194" s="27"/>
+      <c r="T194" s="22"/>
     </row>
     <row r="195" spans="1:21" ht="11.1" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="24" t="s">
+      <c r="A195" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B195" s="24"/>
-      <c r="C195" s="24"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="24"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
       <c r="F195" s="5"/>
       <c r="G195" s="6"/>
       <c r="H195" s="7"/>
-      <c r="I195" s="25">
+      <c r="I195" s="20">
         <f>I204</f>
         <v>301482.99</v>
       </c>
-      <c r="J195" s="25"/>
-      <c r="K195" s="25">
+      <c r="J195" s="20"/>
+      <c r="K195" s="20">
         <f>K196+K198+K202+K204+K206+K208</f>
         <v>572468.11</v>
       </c>
-      <c r="L195" s="25"/>
-      <c r="M195" s="25"/>
-      <c r="N195" s="25">
+      <c r="L195" s="20"/>
+      <c r="M195" s="20"/>
+      <c r="N195" s="20">
         <f>N196+N198+N200+N202+N204+N206+N208</f>
         <v>2443939.52</v>
       </c>
-      <c r="O195" s="25"/>
-      <c r="P195" s="25"/>
+      <c r="O195" s="20"/>
+      <c r="P195" s="20"/>
       <c r="Q195" s="5"/>
       <c r="R195" s="7"/>
-      <c r="S195" s="25">
+      <c r="S195" s="20">
         <f>I195+N195-K195</f>
         <v>2172954.4</v>
       </c>
-      <c r="T195" s="25"/>
+      <c r="T195" s="20"/>
       <c r="U195" s="11"/>
     </row>
     <row r="196" spans="1:21" ht="21.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A196" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B196" s="32"/>
-      <c r="C196" s="32"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="32"/>
+      <c r="A196" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" s="17"/>
+      <c r="C196" s="17"/>
+      <c r="D196" s="17"/>
+      <c r="E196" s="17"/>
       <c r="F196" s="8"/>
       <c r="G196" s="9"/>
       <c r="H196" s="10"/>
       <c r="I196" s="8"/>
       <c r="J196" s="10"/>
-      <c r="K196" s="28">
+      <c r="K196" s="13">
         <v>16100</v>
       </c>
-      <c r="L196" s="28"/>
-      <c r="M196" s="28"/>
-      <c r="N196" s="28">
+      <c r="L196" s="13"/>
+      <c r="M196" s="13"/>
+      <c r="N196" s="13">
         <v>16100</v>
       </c>
-      <c r="O196" s="28"/>
-      <c r="P196" s="28"/>
+      <c r="O196" s="13"/>
+      <c r="P196" s="13"/>
       <c r="Q196" s="8"/>
       <c r="R196" s="10"/>
       <c r="S196" s="8"/>
       <c r="T196" s="10"/>
     </row>
     <row r="197" spans="1:21" ht="21.9" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A197" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B197" s="30"/>
-      <c r="C197" s="30"/>
-      <c r="D197" s="30"/>
-      <c r="E197" s="30"/>
+      <c r="A197" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="15"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
       <c r="F197" s="8"/>
       <c r="G197" s="9"/>
       <c r="H197" s="10"/>
       <c r="I197" s="8"/>
       <c r="J197" s="10"/>
-      <c r="K197" s="28">
+      <c r="K197" s="13">
         <v>16100</v>
       </c>
-      <c r="L197" s="28"/>
-      <c r="M197" s="28"/>
-      <c r="N197" s="28">
+      <c r="L197" s="13"/>
+      <c r="M197" s="13"/>
+      <c r="N197" s="13">
         <v>16100</v>
       </c>
-      <c r="O197" s="28"/>
-      <c r="P197" s="28"/>
+      <c r="O197" s="13"/>
+      <c r="P197" s="13"/>
       <c r="Q197" s="8"/>
       <c r="R197" s="10"/>
       <c r="S197" s="8"/>
@@ -1492,28 +1539,28 @@
       <c r="U197" s="11"/>
     </row>
     <row r="198" spans="1:21" ht="33" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A198" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B198" s="32"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="32"/>
+      <c r="A198" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" s="17"/>
+      <c r="C198" s="17"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="17"/>
       <c r="F198" s="8"/>
       <c r="G198" s="9"/>
       <c r="H198" s="10"/>
-      <c r="I198" s="33"/>
-      <c r="J198" s="33"/>
-      <c r="K198" s="28">
+      <c r="I198" s="19"/>
+      <c r="J198" s="19"/>
+      <c r="K198" s="13">
         <v>3000.11</v>
       </c>
-      <c r="L198" s="28"/>
-      <c r="M198" s="28"/>
-      <c r="N198" s="28">
+      <c r="L198" s="13"/>
+      <c r="M198" s="13"/>
+      <c r="N198" s="13">
         <v>3677.06</v>
       </c>
-      <c r="O198" s="28"/>
-      <c r="P198" s="28"/>
+      <c r="O198" s="13"/>
+      <c r="P198" s="13"/>
       <c r="Q198" s="8"/>
       <c r="R198" s="10"/>
       <c r="S198" s="8"/>
@@ -1524,28 +1571,28 @@
       <c r="U198" s="11"/>
     </row>
     <row r="199" spans="1:21" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A199" s="34">
+      <c r="A199" s="14">
         <v>45414</v>
       </c>
-      <c r="B199" s="30"/>
-      <c r="C199" s="30"/>
-      <c r="D199" s="30"/>
-      <c r="E199" s="30"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
       <c r="F199" s="8"/>
       <c r="G199" s="9"/>
       <c r="H199" s="10"/>
-      <c r="I199" s="33"/>
-      <c r="J199" s="33"/>
-      <c r="K199" s="28">
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="13">
         <v>3000.11</v>
       </c>
-      <c r="L199" s="28"/>
-      <c r="M199" s="28"/>
-      <c r="N199" s="28">
+      <c r="L199" s="13"/>
+      <c r="M199" s="13"/>
+      <c r="N199" s="13">
         <v>3677.06</v>
       </c>
-      <c r="O199" s="28"/>
-      <c r="P199" s="28"/>
+      <c r="O199" s="13"/>
+      <c r="P199" s="13"/>
       <c r="Q199" s="8"/>
       <c r="R199" s="10"/>
       <c r="S199" s="8"/>
@@ -1556,13 +1603,13 @@
       <c r="U199" s="11"/>
     </row>
     <row r="200" spans="1:21" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A200" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B200" s="32"/>
-      <c r="C200" s="32"/>
-      <c r="D200" s="32"/>
-      <c r="E200" s="32"/>
+      <c r="A200" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B200" s="17"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="17"/>
       <c r="F200" s="8"/>
       <c r="G200" s="9"/>
       <c r="H200" s="10"/>
@@ -1571,26 +1618,26 @@
       <c r="K200" s="8"/>
       <c r="L200" s="9"/>
       <c r="M200" s="10"/>
-      <c r="N200" s="28">
+      <c r="N200" s="13">
         <v>1226322.56</v>
       </c>
-      <c r="O200" s="28"/>
-      <c r="P200" s="28"/>
+      <c r="O200" s="13"/>
+      <c r="P200" s="13"/>
       <c r="Q200" s="8"/>
       <c r="R200" s="10"/>
-      <c r="S200" s="28">
+      <c r="S200" s="13">
         <v>1226322.56</v>
       </c>
-      <c r="T200" s="28"/>
+      <c r="T200" s="13"/>
     </row>
     <row r="201" spans="1:21" ht="21.9" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A201" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B201" s="30"/>
-      <c r="C201" s="30"/>
-      <c r="D201" s="30"/>
-      <c r="E201" s="30"/>
+      <c r="A201" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" s="15"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
       <c r="F201" s="8"/>
       <c r="G201" s="9"/>
       <c r="H201" s="10"/>
@@ -1599,41 +1646,41 @@
       <c r="K201" s="8"/>
       <c r="L201" s="9"/>
       <c r="M201" s="10"/>
-      <c r="N201" s="28">
+      <c r="N201" s="13">
         <v>1226322.56</v>
       </c>
-      <c r="O201" s="28"/>
-      <c r="P201" s="28"/>
+      <c r="O201" s="13"/>
+      <c r="P201" s="13"/>
       <c r="Q201" s="8"/>
       <c r="R201" s="10"/>
-      <c r="S201" s="28">
+      <c r="S201" s="13">
         <v>1226322.56</v>
       </c>
-      <c r="T201" s="28"/>
+      <c r="T201" s="13"/>
     </row>
     <row r="202" spans="1:21" ht="21.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A202" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B202" s="32"/>
-      <c r="C202" s="32"/>
-      <c r="D202" s="32"/>
-      <c r="E202" s="32"/>
+      <c r="A202" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" s="17"/>
+      <c r="C202" s="17"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="17"/>
       <c r="F202" s="8"/>
       <c r="G202" s="9"/>
       <c r="H202" s="10"/>
       <c r="I202" s="8"/>
       <c r="J202" s="10"/>
-      <c r="K202" s="28">
+      <c r="K202" s="13">
         <v>17808</v>
       </c>
-      <c r="L202" s="28"/>
-      <c r="M202" s="28"/>
-      <c r="N202" s="28">
+      <c r="L202" s="13"/>
+      <c r="M202" s="13"/>
+      <c r="N202" s="13">
         <v>17808</v>
       </c>
-      <c r="O202" s="28"/>
-      <c r="P202" s="28"/>
+      <c r="O202" s="13"/>
+      <c r="P202" s="13"/>
       <c r="Q202" s="8"/>
       <c r="R202" s="10"/>
       <c r="S202" s="8"/>
@@ -1641,244 +1688,240 @@
       <c r="U202" s="11"/>
     </row>
     <row r="203" spans="1:21" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A203" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B203" s="30"/>
-      <c r="C203" s="30"/>
-      <c r="D203" s="30"/>
-      <c r="E203" s="30"/>
+      <c r="A203" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" s="15"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
       <c r="F203" s="8"/>
       <c r="G203" s="9"/>
       <c r="H203" s="10"/>
       <c r="I203" s="8"/>
       <c r="J203" s="10"/>
-      <c r="K203" s="28">
+      <c r="K203" s="13">
         <v>17808</v>
       </c>
-      <c r="L203" s="28"/>
-      <c r="M203" s="28"/>
-      <c r="N203" s="28">
+      <c r="L203" s="13"/>
+      <c r="M203" s="13"/>
+      <c r="N203" s="13">
         <v>17808</v>
       </c>
-      <c r="O203" s="28"/>
-      <c r="P203" s="28"/>
+      <c r="O203" s="13"/>
+      <c r="P203" s="13"/>
       <c r="Q203" s="8"/>
       <c r="R203" s="10"/>
       <c r="S203" s="8"/>
       <c r="T203" s="10"/>
     </row>
     <row r="204" spans="1:21" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A204" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B204" s="32"/>
-      <c r="C204" s="32"/>
-      <c r="D204" s="32"/>
-      <c r="E204" s="32"/>
+      <c r="A204" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" s="17"/>
+      <c r="C204" s="17"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="17"/>
       <c r="F204" s="8"/>
       <c r="G204" s="9"/>
       <c r="H204" s="10"/>
-      <c r="I204" s="28">
+      <c r="I204" s="13">
         <v>301482.99</v>
       </c>
-      <c r="J204" s="28"/>
-      <c r="K204" s="28">
+      <c r="J204" s="13"/>
+      <c r="K204" s="13">
         <v>520000</v>
       </c>
-      <c r="L204" s="28"/>
-      <c r="M204" s="28"/>
-      <c r="N204" s="28">
+      <c r="L204" s="13"/>
+      <c r="M204" s="13"/>
+      <c r="N204" s="13">
         <v>1164471.8999999999</v>
       </c>
-      <c r="O204" s="28"/>
-      <c r="P204" s="28"/>
+      <c r="O204" s="13"/>
+      <c r="P204" s="13"/>
       <c r="Q204" s="8"/>
       <c r="R204" s="10"/>
-      <c r="S204" s="28">
+      <c r="S204" s="13">
         <v>945954.89</v>
       </c>
-      <c r="T204" s="28"/>
+      <c r="T204" s="13"/>
       <c r="U204" s="11"/>
     </row>
     <row r="205" spans="1:21" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A205" s="34">
+      <c r="A205" s="14">
         <v>45779</v>
       </c>
-      <c r="B205" s="30"/>
-      <c r="C205" s="30"/>
-      <c r="D205" s="30"/>
-      <c r="E205" s="30"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
       <c r="F205" s="8"/>
       <c r="G205" s="9"/>
       <c r="H205" s="10"/>
-      <c r="I205" s="28">
+      <c r="I205" s="13">
         <v>301482.99</v>
       </c>
-      <c r="J205" s="28"/>
-      <c r="K205" s="28">
+      <c r="J205" s="13"/>
+      <c r="K205" s="13">
         <v>520000</v>
       </c>
-      <c r="L205" s="28"/>
-      <c r="M205" s="28"/>
-      <c r="N205" s="28">
+      <c r="L205" s="13"/>
+      <c r="M205" s="13"/>
+      <c r="N205" s="13">
         <v>1164471.8999999999</v>
       </c>
-      <c r="O205" s="28"/>
-      <c r="P205" s="28"/>
+      <c r="O205" s="13"/>
+      <c r="P205" s="13"/>
       <c r="Q205" s="8"/>
       <c r="R205" s="10"/>
-      <c r="S205" s="28">
+      <c r="S205" s="13">
         <v>945954.89</v>
       </c>
-      <c r="T205" s="28"/>
+      <c r="T205" s="13"/>
     </row>
     <row r="206" spans="1:21" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A206" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B206" s="32"/>
-      <c r="C206" s="32"/>
-      <c r="D206" s="32"/>
-      <c r="E206" s="32"/>
+      <c r="A206" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B206" s="17"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
       <c r="F206" s="8"/>
       <c r="G206" s="9"/>
       <c r="H206" s="10"/>
       <c r="I206" s="8"/>
       <c r="J206" s="10"/>
-      <c r="K206" s="28">
+      <c r="K206" s="13">
         <v>5560</v>
       </c>
-      <c r="L206" s="28"/>
-      <c r="M206" s="28"/>
-      <c r="N206" s="28">
+      <c r="L206" s="13"/>
+      <c r="M206" s="13"/>
+      <c r="N206" s="13">
         <v>5560</v>
       </c>
-      <c r="O206" s="28"/>
-      <c r="P206" s="28"/>
+      <c r="O206" s="13"/>
+      <c r="P206" s="13"/>
       <c r="Q206" s="8"/>
       <c r="R206" s="10"/>
       <c r="S206" s="8"/>
       <c r="T206" s="10"/>
     </row>
     <row r="207" spans="1:21" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A207" s="34">
+      <c r="A207" s="14">
         <v>45778</v>
       </c>
-      <c r="B207" s="30"/>
-      <c r="C207" s="30"/>
-      <c r="D207" s="30"/>
-      <c r="E207" s="30"/>
+      <c r="B207" s="15"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
       <c r="F207" s="8"/>
       <c r="G207" s="9"/>
       <c r="H207" s="10"/>
       <c r="I207" s="8"/>
       <c r="J207" s="10"/>
-      <c r="K207" s="28">
+      <c r="K207" s="13">
         <v>5560</v>
       </c>
-      <c r="L207" s="28"/>
-      <c r="M207" s="28"/>
-      <c r="N207" s="28">
+      <c r="L207" s="13"/>
+      <c r="M207" s="13"/>
+      <c r="N207" s="13">
         <v>5560</v>
       </c>
-      <c r="O207" s="28"/>
-      <c r="P207" s="28"/>
+      <c r="O207" s="13"/>
+      <c r="P207" s="13"/>
       <c r="Q207" s="8"/>
       <c r="R207" s="10"/>
       <c r="S207" s="8"/>
       <c r="T207" s="10"/>
     </row>
     <row r="208" spans="1:21" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A208" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B208" s="32"/>
-      <c r="C208" s="32"/>
-      <c r="D208" s="32"/>
-      <c r="E208" s="32"/>
+      <c r="A208" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="17"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
       <c r="F208" s="8"/>
       <c r="G208" s="9"/>
       <c r="H208" s="10"/>
       <c r="I208" s="8"/>
       <c r="J208" s="10"/>
-      <c r="K208" s="28">
+      <c r="K208" s="13">
         <v>10000</v>
       </c>
-      <c r="L208" s="28"/>
-      <c r="M208" s="28"/>
-      <c r="N208" s="28">
+      <c r="L208" s="13"/>
+      <c r="M208" s="13"/>
+      <c r="N208" s="13">
         <v>10000</v>
       </c>
-      <c r="O208" s="28"/>
-      <c r="P208" s="28"/>
+      <c r="O208" s="13"/>
+      <c r="P208" s="13"/>
       <c r="Q208" s="8"/>
       <c r="R208" s="10"/>
       <c r="S208" s="8"/>
       <c r="T208" s="10"/>
     </row>
     <row r="209" spans="1:20" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A209" s="34">
+      <c r="A209" s="14">
         <v>45690</v>
       </c>
-      <c r="B209" s="30"/>
-      <c r="C209" s="30"/>
-      <c r="D209" s="30"/>
-      <c r="E209" s="30"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
       <c r="F209" s="8"/>
       <c r="G209" s="9"/>
       <c r="H209" s="10"/>
       <c r="I209" s="8"/>
       <c r="J209" s="10"/>
-      <c r="K209" s="28">
+      <c r="K209" s="13">
         <v>10000</v>
       </c>
-      <c r="L209" s="28"/>
-      <c r="M209" s="28"/>
-      <c r="N209" s="28">
+      <c r="L209" s="13"/>
+      <c r="M209" s="13"/>
+      <c r="N209" s="13">
         <v>10000</v>
       </c>
-      <c r="O209" s="28"/>
-      <c r="P209" s="28"/>
+      <c r="O209" s="13"/>
+      <c r="P209" s="13"/>
       <c r="Q209" s="8"/>
       <c r="R209" s="10"/>
       <c r="S209" s="8"/>
       <c r="T209" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="S204:T204"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="I205:J205"/>
-    <mergeCell ref="K205:M205"/>
-    <mergeCell ref="N205:P205"/>
-    <mergeCell ref="S205:T205"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="I204:J204"/>
-    <mergeCell ref="K204:M204"/>
-    <mergeCell ref="N204:P204"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="K203:M203"/>
-    <mergeCell ref="N203:P203"/>
-    <mergeCell ref="A209:E209"/>
-    <mergeCell ref="K209:M209"/>
-    <mergeCell ref="N209:P209"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="K206:M206"/>
-    <mergeCell ref="N206:P206"/>
-    <mergeCell ref="A207:E207"/>
-    <mergeCell ref="K207:M207"/>
-    <mergeCell ref="N207:P207"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="K208:M208"/>
-    <mergeCell ref="N208:P208"/>
-    <mergeCell ref="K199:M199"/>
-    <mergeCell ref="N199:P199"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="N200:P200"/>
-    <mergeCell ref="A202:E202"/>
-    <mergeCell ref="K202:M202"/>
-    <mergeCell ref="N202:P202"/>
+  <mergeCells count="76">
+    <mergeCell ref="Q191:R193"/>
+    <mergeCell ref="S191:T193"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="F190:J190"/>
+    <mergeCell ref="K190:P190"/>
+    <mergeCell ref="Q190:T190"/>
+    <mergeCell ref="F191:H193"/>
+    <mergeCell ref="I191:J193"/>
+    <mergeCell ref="K191:M193"/>
+    <mergeCell ref="N191:P193"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="I195:J195"/>
+    <mergeCell ref="K195:M195"/>
+    <mergeCell ref="N195:P195"/>
+    <mergeCell ref="A191:E192"/>
+    <mergeCell ref="S195:T195"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="I194:J194"/>
+    <mergeCell ref="K194:M194"/>
+    <mergeCell ref="N194:P194"/>
+    <mergeCell ref="S194:T194"/>
     <mergeCell ref="S200:T200"/>
     <mergeCell ref="A201:E201"/>
     <mergeCell ref="N201:P201"/>
@@ -1895,35 +1938,38 @@
     <mergeCell ref="N198:P198"/>
     <mergeCell ref="A199:E199"/>
     <mergeCell ref="I199:J199"/>
-    <mergeCell ref="S195:T195"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="I194:J194"/>
-    <mergeCell ref="K194:M194"/>
-    <mergeCell ref="N194:P194"/>
-    <mergeCell ref="S194:T194"/>
-    <mergeCell ref="I191:J193"/>
-    <mergeCell ref="K191:M193"/>
-    <mergeCell ref="N191:P193"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="I195:J195"/>
-    <mergeCell ref="K195:M195"/>
-    <mergeCell ref="N195:P195"/>
-    <mergeCell ref="Q191:R193"/>
-    <mergeCell ref="S191:T193"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:S6"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="F190:J190"/>
-    <mergeCell ref="K190:P190"/>
-    <mergeCell ref="Q190:T190"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="F191:H193"/>
+    <mergeCell ref="K199:M199"/>
+    <mergeCell ref="N199:P199"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="N200:P200"/>
+    <mergeCell ref="A202:E202"/>
+    <mergeCell ref="K202:M202"/>
+    <mergeCell ref="N202:P202"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="K203:M203"/>
+    <mergeCell ref="N203:P203"/>
+    <mergeCell ref="A209:E209"/>
+    <mergeCell ref="K209:M209"/>
+    <mergeCell ref="N209:P209"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="K206:M206"/>
+    <mergeCell ref="N206:P206"/>
+    <mergeCell ref="A207:E207"/>
+    <mergeCell ref="K207:M207"/>
+    <mergeCell ref="N207:P207"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="K208:M208"/>
+    <mergeCell ref="N208:P208"/>
+    <mergeCell ref="S204:T204"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="I205:J205"/>
+    <mergeCell ref="K205:M205"/>
+    <mergeCell ref="N205:P205"/>
+    <mergeCell ref="S205:T205"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="I204:J204"/>
+    <mergeCell ref="K204:M204"/>
+    <mergeCell ref="N204:P204"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
